--- a/Residence Hall.xlsx
+++ b/Residence Hall.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linelij\Documents\C#\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BadCub\source\repos\Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB155EC-C020-44C1-9E17-7009D448C577}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>ID Number</t>
   </si>
@@ -168,12 +169,24 @@
   </si>
   <si>
     <t xml:space="preserve">Jamie </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>Scholar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -254,7 +267,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -264,7 +308,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -272,12 +316,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -286,18 +330,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -306,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,12 +361,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,24 +650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,448 +683,518 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1000</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1200</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="6">
         <v>1245</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1001</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1210</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>1245</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1002</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1220</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>1003</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1230</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="G5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>1004</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1240</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>7</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>1005</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1250</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>7</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="G7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>1006</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1260</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>1245</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="G8" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>1007</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1270</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="G9" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>1008</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1280</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="G10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>1009</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1290</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>1245</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="G11" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>1010</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1300</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="G12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>1011</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1310</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>1012</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1320</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>1245</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="G14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>1013</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1330</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="G15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>1014</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1340</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>8</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="G16" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>1015</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1350</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="G17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>1016</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1360</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>1245</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="G18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>1017</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1370</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>7</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>1018</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1380</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="G20" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>1019</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1390</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>1245</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="G21" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>1020</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1400</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="G22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>1021</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="12">
         <v>1410</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="12">
         <v>6</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="12">
         <v>1200</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
